--- a/pred_ohlcv/54_21/2020-01-20 AE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 AE ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>82620.20581507296</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>78495.43001507295</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>75544.01171507295</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>58107.39971507295</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>58107.39971507295</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>48538.84581507295</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>58538.84581507295</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>68538.84581507294</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>69130.94841507294</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>72527.56781507294</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>72519.46781507293</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>68346.88981507294</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>68349.48981507294</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>67481.48981507294</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>69250.11111507296</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>23985.46868688747</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>24018.46868688747</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>18904.79748688747</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>21373.34418688747</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-137908.8766077928</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-132431.3804077928</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-161288.1861077928</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-168122.2540077928</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-168137.3886077928</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-167864.5526077928</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-167864.5526077928</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-168956.0618077928</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-171016.1524077928</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-179626.7226077928</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-162891.3924077928</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-163118.2933077928</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-155083.0244077928</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-155083.0244077928</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-161102.6085077928</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-167755.4637077928</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-167755.4637077928</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-153889.2260077928</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-142746.7133077928</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-142911.2420077928</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-146831.2420077928</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-146683.4159077928</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-154039.0879077928</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-148740.6706077928</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-148743.6706077928</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 AE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 AE ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>78495.43001507295</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>75544.01171507295</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>58107.39971507295</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>58107.39971507295</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>48538.84581507295</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>58538.84581507295</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>68538.84581507294</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>69130.94841507294</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>72527.56781507294</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>72519.46781507293</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>68346.88981507294</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>68349.48981507294</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>65930.30921507295</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>63026.16881507296</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>61513.34281507295</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>68124.11111507296</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>69250.11111507296</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>64270.11111507296</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>64273.11111507296</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>64273.11111507296</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>64273.11111507296</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>63129.39761507296</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>43274.12991507296</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>37579.37001507296</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>33960.37001507296</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>20609.36441507296</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>23403.56534823623</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>24547.35624823623</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-198.8760517637711</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>29532.23724823623</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>29942.61674823623</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>29764.28374823623</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>29861.86094823623</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>29601.86094823623</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>29604.46094823623</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>29604.46094823623</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>20664.55294823623</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>20664.55294823623</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-7770.108651763771</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-12415.78485176377</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-11745.36435176377</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-11908.81475176377</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-228.8980778332225</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-580.2688778332224</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-280.2688778332224</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1081.588477833222</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>18.41152216677756</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>18.41152216677756</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1139.902177833222</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1139.902177833222</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1415.919577833222</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1415.919577833222</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-4135.632877833223</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-3823.242877833223</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-786.7922778332227</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-786.7922778332227</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-786.7922778332227</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-2515.924877833223</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>7699.594122166778</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>7699.594122166778</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>7699.594122166778</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>7666.594122166778</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>23985.46868688747</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>24018.46868688747</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>18904.79748688747</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>27732.79748688747</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>20633.79748688747</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>11863.79748688747</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>11869.79748688747</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>5450.63958688747</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>18860.63958688747</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>18860.63958688747</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>18860.63958688747</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>22107.35158688747</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>16857.34418688747</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>21373.34418688747</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>21373.34418688747</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>8483.344186887465</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>8792.572186887464</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>8792.572186887464</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>8792.572186887464</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>8798.572186887464</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>2253.330886887465</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-18081.09551311254</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-18081.09551311254</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-18243.84831311254</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-18210.39221311254</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-19283.47701311254</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-19283.47701311254</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>13055.04748918455</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>13055.04748918455</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>13055.04748918455</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>13055.04748918455</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-14775.66601081545</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-10664.50881081545</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-137908.8766077928</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-132431.3804077928</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-161288.1861077928</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-168122.2540077928</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-168137.3886077928</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-167864.5526077928</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-167864.5526077928</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-168956.0618077928</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-171016.1524077928</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-179626.7226077928</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-162891.3924077928</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-163118.2933077928</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-155083.0244077928</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-155083.0244077928</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-155083.0244077928</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-155083.0244077928</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-161102.6085077928</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-167755.4637077928</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-167755.4637077928</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-155197.5718077928</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-153889.2260077928</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-142746.7133077928</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-142894.4138077928</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-142911.2420077928</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-146831.2420077928</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-146683.4159077928</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-153111.6768077928</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-154039.0879077928</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-154039.0879077928</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-148740.6706077928</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-148743.6706077928</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
